--- a/Данные по угрозам/Сетевые атаки.xlsx
+++ b/Данные по угрозам/Сетевые атаки.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kosty\source\repos\FunctionalPrediction\FunctionalPrediction\bin\Debug\DB\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10185"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525" iterateDelta="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -113,7 +108,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -206,7 +201,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -241,7 +236,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -418,7 +413,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -426,161 +421,161 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A16:A45"/>
+  <dimension ref="B1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>27</v>
       </c>
     </row>
